--- a/mbs-perturbation/chain/elm/nearmiss/chain_elm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/chain/elm/nearmiss/chain_elm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4375</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.8125942684766214</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.611111111111111</v>
+        <v>0.5158371040723981</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.21875</v>
+        <v>0.2426470588235294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6642156862745098</v>
       </c>
     </row>
   </sheetData>
